--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643040.431100598</v>
+        <v>-645868.5083385302</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8192700680075</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.86590575356496</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>267.0084609759895</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>245.406938186543</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>66.17512620685359</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.323010830777593</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>23.40477905205531</v>
       </c>
       <c r="H5" t="n">
-        <v>318.0028282768178</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>126.4837616268615</v>
       </c>
       <c r="T7" t="n">
-        <v>190.6249203329743</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>114.790886563363</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>255.2766673225159</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.174543478582286</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.48074024064233</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.82863813027105</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>262.1621171176416</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>144.108843301494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.97180554613968</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>83.29550035394011</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>53.76947475493767</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.421623586788372</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2851635392055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.9137656008625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.6299270469907</v>
+        <v>1061.829122711332</v>
       </c>
       <c r="C2" t="n">
-        <v>557.6299270469907</v>
+        <v>1061.829122711332</v>
       </c>
       <c r="D2" t="n">
-        <v>471.9067899221776</v>
+        <v>1061.829122711332</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1061.829122711332</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>1061.829122711332</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.324418312743</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.361901372331</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D5" t="n">
-        <v>1743.361901372331</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E5" t="n">
-        <v>1357.573648774087</v>
+        <v>642.0360535765544</v>
       </c>
       <c r="F5" t="n">
-        <v>946.5877439844796</v>
+        <v>231.0501487869469</v>
       </c>
       <c r="G5" t="n">
-        <v>528.6239358826665</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>506.1616404812942</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>600.3676088257661</v>
       </c>
       <c r="T7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.1616404812942</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.163317193265</v>
+        <v>1483.636752640286</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.212926725222</v>
+        <v>1114.674235699874</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9472281184711</v>
+        <v>1114.674235699874</v>
       </c>
       <c r="E8" t="n">
-        <v>392.1589755202269</v>
+        <v>728.8859831016298</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="X8" t="n">
-        <v>1642.302649169077</v>
+        <v>1483.636752640286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1252.163317193265</v>
+        <v>1483.636752640286</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1853.433914230804</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2012.946226899564</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.6679140992184</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="C10" t="n">
-        <v>543.6679140992184</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="D10" t="n">
-        <v>393.5512746868826</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="E10" t="n">
-        <v>387.314362082254</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="F10" t="n">
-        <v>240.4244145843437</v>
+        <v>137.2568608513163</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>137.2568608513163</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>137.2568608513163</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>573.5639783861873</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="X10" t="n">
-        <v>764.4604932427485</v>
+        <v>284.1468083492267</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.6679140992184</v>
+        <v>284.1468083492267</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2376.429105670894</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2156.827640693835</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1867.752414038033</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832146</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795185</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,13 +5361,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1962.551399292452</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
         <v>555.8158034133954</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7084,10 +7084,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7321,10 +7321,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,25 +7728,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,49 +7807,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>106.8604465378988</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>258.1828939084839</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>286.8067967414779</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.914571595473</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>114.9219090962723</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>220.1067480351242</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>25.74504007796341</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>111.1976478713735</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>24.02235727160257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.8601746357976</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>232.4149996343065</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>139.9994244361429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.91821458107484</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1175242.121270607</v>
+        <v>1175242.121270608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="9">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="E2" t="n">
         <v>242143.9799070018</v>
@@ -26326,7 +26326,7 @@
         <v>242143.9799070017</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
@@ -26341,13 +26341,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682749</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601199.746323275</v>
+        <v>-601525.0914135566</v>
       </c>
       <c r="C6" t="n">
-        <v>-46468.96256715787</v>
+        <v>-46468.96256715778</v>
       </c>
       <c r="D6" t="n">
-        <v>-202272.7686609526</v>
+        <v>-202272.7686609527</v>
       </c>
       <c r="E6" t="n">
-        <v>-635708.7778643945</v>
+        <v>-635743.51578983</v>
       </c>
       <c r="F6" t="n">
-        <v>135343.9135164118</v>
+        <v>135309.1755909761</v>
       </c>
       <c r="G6" t="n">
-        <v>135343.9135164122</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="H6" t="n">
-        <v>135343.9135164118</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="I6" t="n">
-        <v>135343.9135164118</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="J6" t="n">
-        <v>-41079.30567618085</v>
+        <v>-41114.04360161667</v>
       </c>
       <c r="K6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="L6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="M6" t="n">
-        <v>-14156.20942609712</v>
+        <v>-14156.20942609714</v>
       </c>
       <c r="N6" t="n">
-        <v>129480.0192755932</v>
+        <v>129480.0192755935</v>
       </c>
       <c r="O6" t="n">
+        <v>129480.0192755934</v>
+      </c>
+      <c r="P6" t="n">
         <v>129480.0192755933</v>
-      </c>
-      <c r="P6" t="n">
-        <v>129480.0192755934</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>269.817135867118</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>124.324162491926</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>214.2616425213172</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>390.3793909687397</v>
       </c>
       <c r="H5" t="n">
-        <v>5.919944487539397</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.66177732315745</v>
       </c>
       <c r="T7" t="n">
-        <v>34.41018512510993</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>250.4820052076445</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>151.5993784191955</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.2594191679869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>40.78581763877465</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31844,22 +31844,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143577</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>574.2721069128561</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>579.529959444714</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>303.1576312772749</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>458.8462693152159</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>396.594299294305</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>171.2123056344834</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>431.6758624684117</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648398</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>92.97430510914316</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
